--- a/Code/Results/Cases/Case_0_224/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_224/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.000171687328885</v>
+        <v>1.033299267841694</v>
       </c>
       <c r="D2">
-        <v>1.012491230214603</v>
+        <v>1.040530985516091</v>
       </c>
       <c r="E2">
-        <v>1.006611875259146</v>
+        <v>1.032632998719386</v>
       </c>
       <c r="F2">
-        <v>1.014298869234811</v>
+        <v>1.047805281267926</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047457397171522</v>
+        <v>1.033253539088952</v>
       </c>
       <c r="J2">
-        <v>1.022347264469658</v>
+        <v>1.038424756301964</v>
       </c>
       <c r="K2">
-        <v>1.023779242656183</v>
+        <v>1.043313070620796</v>
       </c>
       <c r="L2">
-        <v>1.017979858337427</v>
+        <v>1.035437667400937</v>
       </c>
       <c r="M2">
-        <v>1.025562528490004</v>
+        <v>1.050566892918201</v>
       </c>
       <c r="N2">
-        <v>1.023799114850075</v>
+        <v>1.039899438564897</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.005063402870098</v>
+        <v>1.034311450429669</v>
       </c>
       <c r="D3">
-        <v>1.016739468055905</v>
+        <v>1.041462593743852</v>
       </c>
       <c r="E3">
-        <v>1.010535496403163</v>
+        <v>1.033493724896626</v>
       </c>
       <c r="F3">
-        <v>1.019193449340613</v>
+        <v>1.048897026253906</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048709477979238</v>
+        <v>1.03340583016553</v>
       </c>
       <c r="J3">
-        <v>1.025416979741345</v>
+        <v>1.039079276549314</v>
       </c>
       <c r="K3">
-        <v>1.027162552394104</v>
+        <v>1.044054802476562</v>
       </c>
       <c r="L3">
-        <v>1.021035325238314</v>
+        <v>1.036107067550997</v>
       </c>
       <c r="M3">
-        <v>1.029586497984105</v>
+        <v>1.051469831016945</v>
       </c>
       <c r="N3">
-        <v>1.026873189469549</v>
+        <v>1.040554888306074</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008156410491144</v>
+        <v>1.034966143543362</v>
       </c>
       <c r="D4">
-        <v>1.019431065833708</v>
+        <v>1.042065524778049</v>
       </c>
       <c r="E4">
-        <v>1.013022496214284</v>
+        <v>1.034050844024983</v>
       </c>
       <c r="F4">
-        <v>1.022295939350262</v>
+        <v>1.049603890632234</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049483351912598</v>
+        <v>1.033502094869176</v>
       </c>
       <c r="J4">
-        <v>1.027353750900723</v>
+        <v>1.039501958895028</v>
       </c>
       <c r="K4">
-        <v>1.029300497756227</v>
+        <v>1.044534246544083</v>
       </c>
       <c r="L4">
-        <v>1.022966251371297</v>
+        <v>1.036539747952801</v>
       </c>
       <c r="M4">
-        <v>1.032132517918769</v>
+        <v>1.052053932386183</v>
       </c>
       <c r="N4">
-        <v>1.028812711066124</v>
+        <v>1.0409781709092</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.009440060976792</v>
+        <v>1.035241314851391</v>
       </c>
       <c r="D5">
-        <v>1.020549393065859</v>
+        <v>1.042319024625562</v>
       </c>
       <c r="E5">
-        <v>1.014056060917751</v>
+        <v>1.034285097228027</v>
       </c>
       <c r="F5">
-        <v>1.023585341103084</v>
+        <v>1.049901159462006</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049800182141331</v>
+        <v>1.033542018624184</v>
       </c>
       <c r="J5">
-        <v>1.028156494439525</v>
+        <v>1.039679453852148</v>
       </c>
       <c r="K5">
-        <v>1.030187427729173</v>
+        <v>1.044735683132684</v>
       </c>
       <c r="L5">
-        <v>1.023767328426225</v>
+        <v>1.036721534568381</v>
       </c>
       <c r="M5">
-        <v>1.033189527997847</v>
+        <v>1.052299449803559</v>
       </c>
       <c r="N5">
-        <v>1.029616594592827</v>
+        <v>1.041155917929518</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.009654633380053</v>
+        <v>1.03528751370148</v>
       </c>
       <c r="D6">
-        <v>1.020736403804564</v>
+        <v>1.04236158996692</v>
       </c>
       <c r="E6">
-        <v>1.014228911457063</v>
+        <v>1.034324431712844</v>
       </c>
       <c r="F6">
-        <v>1.023800980955834</v>
+        <v>1.049951078235541</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049852885696247</v>
+        <v>1.033548689966848</v>
       </c>
       <c r="J6">
-        <v>1.028290616501203</v>
+        <v>1.03970924425092</v>
       </c>
       <c r="K6">
-        <v>1.030335663201321</v>
+        <v>1.044769498069728</v>
       </c>
       <c r="L6">
-        <v>1.023901216572952</v>
+        <v>1.036752050742412</v>
       </c>
       <c r="M6">
-        <v>1.033366236332832</v>
+        <v>1.052340670968321</v>
       </c>
       <c r="N6">
-        <v>1.029750907123217</v>
+        <v>1.041185750634073</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008173627281624</v>
+        <v>1.03496982063849</v>
       </c>
       <c r="D7">
-        <v>1.019446060286534</v>
+        <v>1.042068911947658</v>
       </c>
       <c r="E7">
-        <v>1.013036353222372</v>
+        <v>1.034053973970325</v>
       </c>
       <c r="F7">
-        <v>1.022313226132798</v>
+        <v>1.049607862348588</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049487618599815</v>
+        <v>1.033502630478255</v>
       </c>
       <c r="J7">
-        <v>1.027364521793958</v>
+        <v>1.03950433138067</v>
       </c>
       <c r="K7">
-        <v>1.029312395035619</v>
+        <v>1.044536938628537</v>
       </c>
       <c r="L7">
-        <v>1.02297699691156</v>
+        <v>1.036542177436201</v>
       </c>
       <c r="M7">
-        <v>1.032146693513173</v>
+        <v>1.052057213155031</v>
       </c>
       <c r="N7">
-        <v>1.028823497255263</v>
+        <v>1.040980546764044</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C8">
-        <v>1.001840229931747</v>
+        <v>1.033641392707932</v>
       </c>
       <c r="D8">
-        <v>1.013939113222555</v>
+        <v>1.04084580200691</v>
       </c>
       <c r="E8">
-        <v>1.007948890113719</v>
+        <v>1.032923849128113</v>
       </c>
       <c r="F8">
-        <v>1.015966761897643</v>
+        <v>1.048174151795515</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047888176358679</v>
+        <v>1.033305477839786</v>
       </c>
       <c r="J8">
-        <v>1.023395185371641</v>
+        <v>1.038646127256515</v>
       </c>
       <c r="K8">
-        <v>1.024933523540146</v>
+        <v>1.043563846825609</v>
       </c>
       <c r="L8">
-        <v>1.019022254502565</v>
+        <v>1.035663990497876</v>
       </c>
       <c r="M8">
-        <v>1.026934710949238</v>
+        <v>1.050872077896477</v>
       </c>
       <c r="N8">
-        <v>1.024848523919937</v>
+        <v>1.040121123891595</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9900954021286146</v>
+        <v>1.031298575745147</v>
       </c>
       <c r="D9">
-        <v>1.003772584532433</v>
+        <v>1.038691459755404</v>
       </c>
       <c r="E9">
-        <v>0.9985659108327095</v>
+        <v>1.030933774313417</v>
       </c>
       <c r="F9">
-        <v>1.004260344046192</v>
+        <v>1.045651101718779</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044782760455558</v>
+        <v>1.032940650903305</v>
       </c>
       <c r="J9">
-        <v>1.01600283161358</v>
+        <v>1.037127482764415</v>
       </c>
       <c r="K9">
-        <v>1.016804749287663</v>
+        <v>1.041845282570388</v>
       </c>
       <c r="L9">
-        <v>1.011682298062639</v>
+        <v>1.034112967826453</v>
       </c>
       <c r="M9">
-        <v>1.017284676249504</v>
+        <v>1.048782514473169</v>
       </c>
       <c r="N9">
-        <v>1.017445672171625</v>
+        <v>1.038600322750125</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9818256225685058</v>
+        <v>1.029735390046008</v>
       </c>
       <c r="D10">
-        <v>0.9966482330237965</v>
+        <v>1.037255894759414</v>
       </c>
       <c r="E10">
-        <v>0.9919977032245315</v>
+        <v>1.029608008868507</v>
       </c>
       <c r="F10">
-        <v>0.9960620988317475</v>
+        <v>1.043971331141264</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042506042702006</v>
+        <v>1.032685755695967</v>
       </c>
       <c r="J10">
-        <v>1.010779346865249</v>
+        <v>1.03611079359996</v>
       </c>
       <c r="K10">
-        <v>1.011078269518577</v>
+        <v>1.040697012162863</v>
       </c>
       <c r="L10">
-        <v>1.006512960554302</v>
+        <v>1.033076601812777</v>
       </c>
       <c r="M10">
-        <v>1.010502819173675</v>
+        <v>1.047388688779178</v>
       </c>
       <c r="N10">
-        <v>1.012214769475809</v>
+        <v>1.037582189770441</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9781288607357226</v>
+        <v>1.029058203754013</v>
       </c>
       <c r="D11">
-        <v>0.9934723556909094</v>
+        <v>1.036634443128664</v>
       </c>
       <c r="E11">
-        <v>0.9890716279198853</v>
+        <v>1.029034171838503</v>
       </c>
       <c r="F11">
-        <v>0.9924083735439813</v>
+        <v>1.04324451246632</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041467911964288</v>
+        <v>1.032572620282212</v>
       </c>
       <c r="J11">
-        <v>1.008440684878491</v>
+        <v>1.035669551088786</v>
       </c>
       <c r="K11">
-        <v>1.008518432750639</v>
+        <v>1.040199196290128</v>
       </c>
       <c r="L11">
-        <v>1.004202622608788</v>
+        <v>1.03262729243882</v>
       </c>
       <c r="M11">
-        <v>1.007474891091532</v>
+        <v>1.046784965554074</v>
       </c>
       <c r="N11">
-        <v>1.009872786320782</v>
+        <v>1.03714032064429</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9767372333600832</v>
+        <v>1.028806618960333</v>
       </c>
       <c r="D12">
-        <v>0.9922782125128599</v>
+        <v>1.036403632414595</v>
       </c>
       <c r="E12">
-        <v>0.9879717137358588</v>
+        <v>1.028821058092924</v>
       </c>
       <c r="F12">
-        <v>0.9910346552882832</v>
+        <v>1.042974619928853</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041074136937264</v>
+        <v>1.032530181944824</v>
       </c>
       <c r="J12">
-        <v>1.007559821092545</v>
+        <v>1.035505502664847</v>
       </c>
       <c r="K12">
-        <v>1.007554860255828</v>
+        <v>1.04001419441449</v>
       </c>
       <c r="L12">
-        <v>1.003333042744506</v>
+        <v>1.032460315803722</v>
       </c>
       <c r="M12">
-        <v>1.006335656652946</v>
+        <v>1.046560687952294</v>
       </c>
       <c r="N12">
-        <v>1.008990671607223</v>
+        <v>1.036976039252772</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9770365968644619</v>
+        <v>1.028860586910567</v>
       </c>
       <c r="D13">
-        <v>0.9925350292990516</v>
+        <v>1.036453140999236</v>
       </c>
       <c r="E13">
-        <v>0.9882082513108349</v>
+        <v>1.028866770126975</v>
       </c>
       <c r="F13">
-        <v>0.9913300882779601</v>
+        <v>1.043032509158466</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041158977845174</v>
+        <v>1.032539303875744</v>
       </c>
       <c r="J13">
-        <v>1.00774933128768</v>
+        <v>1.035540698450327</v>
       </c>
       <c r="K13">
-        <v>1.007762137646942</v>
+        <v>1.040053882052794</v>
       </c>
       <c r="L13">
-        <v>1.003520097451578</v>
+        <v>1.032496136613957</v>
       </c>
       <c r="M13">
-        <v>1.006580697308282</v>
+        <v>1.04660879751842</v>
       </c>
       <c r="N13">
-        <v>1.009180450928573</v>
+        <v>1.037011285020305</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9780142119990848</v>
+        <v>1.029037408649153</v>
       </c>
       <c r="D14">
-        <v>0.9933739477669314</v>
+        <v>1.03661536374911</v>
       </c>
       <c r="E14">
-        <v>0.9889809790363209</v>
+        <v>1.029016555074888</v>
       </c>
       <c r="F14">
-        <v>0.9922951652604988</v>
+        <v>1.043222201426205</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041435530883844</v>
+        <v>1.032569120775275</v>
       </c>
       <c r="J14">
-        <v>1.008368124724895</v>
+        <v>1.035655993879605</v>
       </c>
       <c r="K14">
-        <v>1.008439047469532</v>
+        <v>1.040183905829727</v>
       </c>
       <c r="L14">
-        <v>1.00413097943567</v>
+        <v>1.032613491791508</v>
       </c>
       <c r="M14">
-        <v>1.007381022843836</v>
+        <v>1.046766427265562</v>
       </c>
       <c r="N14">
-        <v>1.009800123123445</v>
+        <v>1.037126744182317</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9786140698526309</v>
+        <v>1.029146348040769</v>
       </c>
       <c r="D15">
-        <v>0.9938888889150305</v>
+        <v>1.036715317744473</v>
       </c>
       <c r="E15">
-        <v>0.9894553317350886</v>
+        <v>1.029108847164206</v>
       </c>
       <c r="F15">
-        <v>0.9928875563342828</v>
+        <v>1.043339087736503</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041604832431453</v>
+        <v>1.032587436998999</v>
       </c>
       <c r="J15">
-        <v>1.008747749938894</v>
+        <v>1.035727011158954</v>
       </c>
       <c r="K15">
-        <v>1.008854405141299</v>
+        <v>1.040264005735278</v>
       </c>
       <c r="L15">
-        <v>1.00450583221374</v>
+        <v>1.032685787186515</v>
       </c>
       <c r="M15">
-        <v>1.007872179696134</v>
+        <v>1.046863544463669</v>
       </c>
       <c r="N15">
-        <v>1.010180287448792</v>
+        <v>1.037197862314348</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.982068433049195</v>
+        <v>1.029780325992505</v>
       </c>
       <c r="D16">
-        <v>0.9968570207517486</v>
+        <v>1.037297141812504</v>
       </c>
       <c r="E16">
-        <v>0.9921901093825003</v>
+        <v>1.029646097400679</v>
       </c>
       <c r="F16">
-        <v>0.9963023164970209</v>
+        <v>1.044019578950756</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.0425738122804</v>
+        <v>1.032693205924434</v>
       </c>
       <c r="J16">
-        <v>1.0109328838973</v>
+        <v>1.036140056174781</v>
       </c>
       <c r="K16">
-        <v>1.011246410114441</v>
+        <v>1.040730037798075</v>
       </c>
       <c r="L16">
-        <v>1.00666472310612</v>
+        <v>1.033106409316189</v>
       </c>
       <c r="M16">
-        <v>1.010701781141461</v>
+        <v>1.047428751972802</v>
       </c>
       <c r="N16">
-        <v>1.012368524548056</v>
+        <v>1.037611493901475</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9842035047087984</v>
+        <v>1.030177918795251</v>
       </c>
       <c r="D17">
-        <v>0.9986939386720723</v>
+        <v>1.037662147149668</v>
       </c>
       <c r="E17">
-        <v>0.9938831186777353</v>
+        <v>1.029983161790307</v>
       </c>
       <c r="F17">
-        <v>0.9984158506730041</v>
+        <v>1.044446575967463</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043167415143633</v>
+        <v>1.032758812281044</v>
       </c>
       <c r="J17">
-        <v>1.012282551710856</v>
+        <v>1.036398878401162</v>
       </c>
       <c r="K17">
-        <v>1.012724906692927</v>
+        <v>1.041022205068177</v>
       </c>
       <c r="L17">
-        <v>1.007999255812577</v>
+        <v>1.033370105888663</v>
       </c>
       <c r="M17">
-        <v>1.012451712894922</v>
+        <v>1.047783241693826</v>
       </c>
       <c r="N17">
-        <v>1.013720109044717</v>
+        <v>1.037870683685105</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.985437750903263</v>
+        <v>1.030409797412701</v>
       </c>
       <c r="D18">
-        <v>0.9997566610243055</v>
+        <v>1.037875063754135</v>
       </c>
       <c r="E18">
-        <v>0.9948627622417708</v>
+        <v>1.030179787720211</v>
       </c>
       <c r="F18">
-        <v>0.9996386901160036</v>
+        <v>1.044695687524172</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043508629975575</v>
+        <v>1.032796812631806</v>
       </c>
       <c r="J18">
-        <v>1.013062419726869</v>
+        <v>1.036549747612678</v>
       </c>
       <c r="K18">
-        <v>1.013579596138272</v>
+        <v>1.041192562685199</v>
       </c>
       <c r="L18">
-        <v>1.008770764240507</v>
+        <v>1.033523861959973</v>
       </c>
       <c r="M18">
-        <v>1.013463663154935</v>
+        <v>1.047989991442798</v>
       </c>
       <c r="N18">
-        <v>1.014501084562765</v>
+        <v>1.038021767148206</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9858567445715861</v>
+        <v>1.030488856851939</v>
       </c>
       <c r="D19">
-        <v>1.000117566298803</v>
+        <v>1.037947665373276</v>
       </c>
       <c r="E19">
-        <v>0.9951954831398562</v>
+        <v>1.030246835789847</v>
       </c>
       <c r="F19">
-        <v>1.000053987200038</v>
+        <v>1.044780636843327</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043624132327122</v>
+        <v>1.032809724513455</v>
       </c>
       <c r="J19">
-        <v>1.013327102849216</v>
+        <v>1.036601173581339</v>
       </c>
       <c r="K19">
-        <v>1.013869738168904</v>
+        <v>1.04125064027894</v>
       </c>
       <c r="L19">
-        <v>1.009032675544351</v>
+        <v>1.03357627968948</v>
       </c>
       <c r="M19">
-        <v>1.013807250393469</v>
+        <v>1.048060484685027</v>
       </c>
       <c r="N19">
-        <v>1.014766143565505</v>
+        <v>1.038073266147641</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9839755878511015</v>
+        <v>1.030135264009451</v>
       </c>
       <c r="D20">
-        <v>0.9984977624580825</v>
+        <v>1.037622983959362</v>
       </c>
       <c r="E20">
-        <v>0.9937022928394678</v>
+        <v>1.02994699569392</v>
       </c>
       <c r="F20">
-        <v>0.9981901242748009</v>
+        <v>1.044400757908368</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043104248958691</v>
+        <v>1.032751800925247</v>
       </c>
       <c r="J20">
-        <v>1.01213851190014</v>
+        <v>1.036371119299169</v>
       </c>
       <c r="K20">
-        <v>1.012567078434978</v>
+        <v>1.040990864344785</v>
       </c>
       <c r="L20">
-        <v>1.007856791190245</v>
+        <v>1.033341819291122</v>
       </c>
       <c r="M20">
-        <v>1.012264872995904</v>
+        <v>1.047745210172617</v>
       </c>
       <c r="N20">
-        <v>1.013575864680948</v>
+        <v>1.037842885162003</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9777268480604216</v>
+        <v>1.028985340370541</v>
       </c>
       <c r="D21">
-        <v>0.993127313768462</v>
+        <v>1.036567592524097</v>
       </c>
       <c r="E21">
-        <v>0.988753796002491</v>
+        <v>1.02897244617346</v>
       </c>
       <c r="F21">
-        <v>0.9920114394496056</v>
+        <v>1.043166339563683</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041354320972387</v>
+        <v>1.032560351888531</v>
       </c>
       <c r="J21">
-        <v>1.008186247065349</v>
+        <v>1.035622046423519</v>
       </c>
       <c r="K21">
-        <v>1.008240071691029</v>
+        <v>1.040145619574714</v>
       </c>
       <c r="L21">
-        <v>1.003951410179383</v>
+        <v>1.032578935908192</v>
       </c>
       <c r="M21">
-        <v>1.007145754722159</v>
+        <v>1.046720010002435</v>
       </c>
       <c r="N21">
-        <v>1.00961798717676</v>
+        <v>1.03709274851695</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9736904690254885</v>
+        <v>1.028262061981331</v>
       </c>
       <c r="D22">
-        <v>0.9896664678105928</v>
+        <v>1.035904165634923</v>
       </c>
       <c r="E22">
-        <v>0.9855666382256056</v>
+        <v>1.028359910290707</v>
       </c>
       <c r="F22">
-        <v>0.9880302985825504</v>
+        <v>1.042390676321714</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040206647637126</v>
+        <v>1.032437580557832</v>
       </c>
       <c r="J22">
-        <v>1.005630476719038</v>
+        <v>1.035150199311321</v>
       </c>
       <c r="K22">
-        <v>1.005445451574547</v>
+        <v>1.039613654906067</v>
       </c>
       <c r="L22">
-        <v>1.001429549737641</v>
+        <v>1.032098800091107</v>
       </c>
       <c r="M22">
-        <v>1.003842666287421</v>
+        <v>1.046075264577106</v>
       </c>
       <c r="N22">
-        <v>1.007058587343408</v>
+        <v>1.036620231327731</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9758408061999378</v>
+        <v>1.02864551171172</v>
       </c>
       <c r="D23">
-        <v>0.9915093998631793</v>
+        <v>1.036255847407717</v>
       </c>
       <c r="E23">
-        <v>0.9872636552466417</v>
+        <v>1.028684607799043</v>
       </c>
       <c r="F23">
-        <v>0.9901502519702565</v>
+        <v>1.042801825984713</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040819656410972</v>
+        <v>1.032502891275341</v>
       </c>
       <c r="J23">
-        <v>1.00699227726235</v>
+        <v>1.035400417246662</v>
       </c>
       <c r="K23">
-        <v>1.00693419433848</v>
+        <v>1.039895709167258</v>
       </c>
       <c r="L23">
-        <v>1.002772943037028</v>
+        <v>1.032353374606844</v>
       </c>
       <c r="M23">
-        <v>1.005601990810246</v>
+        <v>1.046417071540862</v>
       </c>
       <c r="N23">
-        <v>1.008422321799691</v>
+        <v>1.03687080460124</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9840786079073129</v>
+        <v>1.030154537965271</v>
       </c>
       <c r="D24">
-        <v>0.9985864329353885</v>
+        <v>1.037640680072363</v>
       </c>
       <c r="E24">
-        <v>0.9937840244897218</v>
+        <v>1.029963337528195</v>
       </c>
       <c r="F24">
-        <v>0.9982921509936428</v>
+        <v>1.044421460958044</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0431328065405</v>
+        <v>1.032754969879263</v>
       </c>
       <c r="J24">
-        <v>1.01220362002071</v>
+        <v>1.0363836627434</v>
       </c>
       <c r="K24">
-        <v>1.012638417953615</v>
+        <v>1.041005026049649</v>
       </c>
       <c r="L24">
-        <v>1.007921186105583</v>
+        <v>1.033354600952769</v>
       </c>
       <c r="M24">
-        <v>1.01234932490147</v>
+        <v>1.047762395035844</v>
       </c>
       <c r="N24">
-        <v>1.013641065262518</v>
+        <v>1.037855446419363</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9932056082127068</v>
+        <v>1.031904481149073</v>
       </c>
       <c r="D25">
-        <v>1.006459208196536</v>
+        <v>1.039248294531522</v>
       </c>
       <c r="E25">
-        <v>1.001044322589276</v>
+        <v>1.031448091882064</v>
       </c>
       <c r="F25">
-        <v>1.007352890005296</v>
+        <v>1.046302973468874</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045620920529114</v>
+        <v>1.033037028066878</v>
       </c>
       <c r="J25">
-        <v>1.01796381440462</v>
+        <v>1.037520841654797</v>
       </c>
       <c r="K25">
-        <v>1.018958074009663</v>
+        <v>1.042290026093973</v>
       </c>
       <c r="L25">
-        <v>1.013626448397711</v>
+        <v>1.034514361079722</v>
       </c>
       <c r="M25">
-        <v>1.019838124171691</v>
+        <v>1.049322856645991</v>
       </c>
       <c r="N25">
-        <v>1.019409439783156</v>
+        <v>1.038994240255251</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_224/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_224/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033299267841694</v>
+        <v>1.000171687328884</v>
       </c>
       <c r="D2">
-        <v>1.040530985516091</v>
+        <v>1.012491230214603</v>
       </c>
       <c r="E2">
-        <v>1.032632998719386</v>
+        <v>1.006611875259145</v>
       </c>
       <c r="F2">
-        <v>1.047805281267926</v>
+        <v>1.01429886923481</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033253539088952</v>
+        <v>1.047457397171521</v>
       </c>
       <c r="J2">
-        <v>1.038424756301964</v>
+        <v>1.022347264469658</v>
       </c>
       <c r="K2">
-        <v>1.043313070620796</v>
+        <v>1.023779242656182</v>
       </c>
       <c r="L2">
-        <v>1.035437667400937</v>
+        <v>1.017979858337426</v>
       </c>
       <c r="M2">
-        <v>1.050566892918201</v>
+        <v>1.025562528490003</v>
       </c>
       <c r="N2">
-        <v>1.039899438564897</v>
+        <v>1.023799114850074</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034311450429669</v>
+        <v>1.005063402870098</v>
       </c>
       <c r="D3">
-        <v>1.041462593743852</v>
+        <v>1.016739468055905</v>
       </c>
       <c r="E3">
-        <v>1.033493724896626</v>
+        <v>1.010535496403163</v>
       </c>
       <c r="F3">
-        <v>1.048897026253906</v>
+        <v>1.019193449340613</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03340583016553</v>
+        <v>1.048709477979238</v>
       </c>
       <c r="J3">
-        <v>1.039079276549314</v>
+        <v>1.025416979741345</v>
       </c>
       <c r="K3">
-        <v>1.044054802476562</v>
+        <v>1.027162552394104</v>
       </c>
       <c r="L3">
-        <v>1.036107067550997</v>
+        <v>1.021035325238314</v>
       </c>
       <c r="M3">
-        <v>1.051469831016945</v>
+        <v>1.029586497984105</v>
       </c>
       <c r="N3">
-        <v>1.040554888306074</v>
+        <v>1.026873189469549</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034966143543362</v>
+        <v>1.008156410491144</v>
       </c>
       <c r="D4">
-        <v>1.042065524778049</v>
+        <v>1.019431065833707</v>
       </c>
       <c r="E4">
-        <v>1.034050844024983</v>
+        <v>1.013022496214283</v>
       </c>
       <c r="F4">
-        <v>1.049603890632234</v>
+        <v>1.022295939350261</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033502094869176</v>
+        <v>1.049483351912598</v>
       </c>
       <c r="J4">
-        <v>1.039501958895028</v>
+        <v>1.027353750900722</v>
       </c>
       <c r="K4">
-        <v>1.044534246544083</v>
+        <v>1.029300497756227</v>
       </c>
       <c r="L4">
-        <v>1.036539747952801</v>
+        <v>1.022966251371296</v>
       </c>
       <c r="M4">
-        <v>1.052053932386183</v>
+        <v>1.032132517918769</v>
       </c>
       <c r="N4">
-        <v>1.0409781709092</v>
+        <v>1.028812711066124</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035241314851391</v>
+        <v>1.009440060976793</v>
       </c>
       <c r="D5">
-        <v>1.042319024625562</v>
+        <v>1.020549393065859</v>
       </c>
       <c r="E5">
-        <v>1.034285097228027</v>
+        <v>1.014056060917752</v>
       </c>
       <c r="F5">
-        <v>1.049901159462006</v>
+        <v>1.023585341103084</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033542018624184</v>
+        <v>1.049800182141331</v>
       </c>
       <c r="J5">
-        <v>1.039679453852148</v>
+        <v>1.028156494439525</v>
       </c>
       <c r="K5">
-        <v>1.044735683132684</v>
+        <v>1.030187427729173</v>
       </c>
       <c r="L5">
-        <v>1.036721534568381</v>
+        <v>1.023767328426225</v>
       </c>
       <c r="M5">
-        <v>1.052299449803559</v>
+        <v>1.033189527997847</v>
       </c>
       <c r="N5">
-        <v>1.041155917929518</v>
+        <v>1.029616594592828</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03528751370148</v>
+        <v>1.009654633380053</v>
       </c>
       <c r="D6">
-        <v>1.04236158996692</v>
+        <v>1.020736403804563</v>
       </c>
       <c r="E6">
-        <v>1.034324431712844</v>
+        <v>1.014228911457062</v>
       </c>
       <c r="F6">
-        <v>1.049951078235541</v>
+        <v>1.023800980955834</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033548689966848</v>
+        <v>1.049852885696247</v>
       </c>
       <c r="J6">
-        <v>1.03970924425092</v>
+        <v>1.028290616501203</v>
       </c>
       <c r="K6">
-        <v>1.044769498069728</v>
+        <v>1.030335663201321</v>
       </c>
       <c r="L6">
-        <v>1.036752050742412</v>
+        <v>1.023901216572952</v>
       </c>
       <c r="M6">
-        <v>1.052340670968321</v>
+        <v>1.033366236332832</v>
       </c>
       <c r="N6">
-        <v>1.041185750634073</v>
+        <v>1.029750907123217</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03496982063849</v>
+        <v>1.008173627281623</v>
       </c>
       <c r="D7">
-        <v>1.042068911947658</v>
+        <v>1.019446060286534</v>
       </c>
       <c r="E7">
-        <v>1.034053973970325</v>
+        <v>1.013036353222372</v>
       </c>
       <c r="F7">
-        <v>1.049607862348588</v>
+        <v>1.022313226132798</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033502630478255</v>
+        <v>1.049487618599815</v>
       </c>
       <c r="J7">
-        <v>1.03950433138067</v>
+        <v>1.027364521793958</v>
       </c>
       <c r="K7">
-        <v>1.044536938628537</v>
+        <v>1.029312395035619</v>
       </c>
       <c r="L7">
-        <v>1.036542177436201</v>
+        <v>1.02297699691156</v>
       </c>
       <c r="M7">
-        <v>1.052057213155031</v>
+        <v>1.032146693513173</v>
       </c>
       <c r="N7">
-        <v>1.040980546764044</v>
+        <v>1.028823497255263</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033641392707932</v>
+        <v>1.001840229931747</v>
       </c>
       <c r="D8">
-        <v>1.04084580200691</v>
+        <v>1.013939113222555</v>
       </c>
       <c r="E8">
-        <v>1.032923849128113</v>
+        <v>1.007948890113719</v>
       </c>
       <c r="F8">
-        <v>1.048174151795515</v>
+        <v>1.015966761897643</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033305477839786</v>
+        <v>1.047888176358679</v>
       </c>
       <c r="J8">
-        <v>1.038646127256515</v>
+        <v>1.023395185371641</v>
       </c>
       <c r="K8">
-        <v>1.043563846825609</v>
+        <v>1.024933523540146</v>
       </c>
       <c r="L8">
-        <v>1.035663990497876</v>
+        <v>1.019022254502565</v>
       </c>
       <c r="M8">
-        <v>1.050872077896477</v>
+        <v>1.026934710949238</v>
       </c>
       <c r="N8">
-        <v>1.040121123891595</v>
+        <v>1.024848523919937</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031298575745147</v>
+        <v>0.990095402128615</v>
       </c>
       <c r="D9">
-        <v>1.038691459755404</v>
+        <v>1.003772584532434</v>
       </c>
       <c r="E9">
-        <v>1.030933774313417</v>
+        <v>0.9985659108327101</v>
       </c>
       <c r="F9">
-        <v>1.045651101718779</v>
+        <v>1.004260344046193</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032940650903305</v>
+        <v>1.044782760455558</v>
       </c>
       <c r="J9">
-        <v>1.037127482764415</v>
+        <v>1.016002831613581</v>
       </c>
       <c r="K9">
-        <v>1.041845282570388</v>
+        <v>1.016804749287664</v>
       </c>
       <c r="L9">
-        <v>1.034112967826453</v>
+        <v>1.011682298062639</v>
       </c>
       <c r="M9">
-        <v>1.048782514473169</v>
+        <v>1.017284676249504</v>
       </c>
       <c r="N9">
-        <v>1.038600322750125</v>
+        <v>1.017445672171626</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.029735390046008</v>
+        <v>0.9818256225685057</v>
       </c>
       <c r="D10">
-        <v>1.037255894759414</v>
+        <v>0.9966482330237963</v>
       </c>
       <c r="E10">
-        <v>1.029608008868507</v>
+        <v>0.9919977032245314</v>
       </c>
       <c r="F10">
-        <v>1.043971331141264</v>
+        <v>0.9960620988317477</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032685755695967</v>
+        <v>1.042506042702006</v>
       </c>
       <c r="J10">
-        <v>1.03611079359996</v>
+        <v>1.010779346865249</v>
       </c>
       <c r="K10">
-        <v>1.040697012162863</v>
+        <v>1.011078269518576</v>
       </c>
       <c r="L10">
-        <v>1.033076601812777</v>
+        <v>1.006512960554302</v>
       </c>
       <c r="M10">
-        <v>1.047388688779178</v>
+        <v>1.010502819173675</v>
       </c>
       <c r="N10">
-        <v>1.037582189770441</v>
+        <v>1.012214769475809</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.029058203754013</v>
+        <v>0.9781288607357222</v>
       </c>
       <c r="D11">
-        <v>1.036634443128664</v>
+        <v>0.9934723556909094</v>
       </c>
       <c r="E11">
-        <v>1.029034171838503</v>
+        <v>0.9890716279198855</v>
       </c>
       <c r="F11">
-        <v>1.04324451246632</v>
+        <v>0.9924083735439815</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032572620282212</v>
+        <v>1.041467911964288</v>
       </c>
       <c r="J11">
-        <v>1.035669551088786</v>
+        <v>1.008440684878491</v>
       </c>
       <c r="K11">
-        <v>1.040199196290128</v>
+        <v>1.008518432750639</v>
       </c>
       <c r="L11">
-        <v>1.03262729243882</v>
+        <v>1.004202622608788</v>
       </c>
       <c r="M11">
-        <v>1.046784965554074</v>
+        <v>1.007474891091532</v>
       </c>
       <c r="N11">
-        <v>1.03714032064429</v>
+        <v>1.009872786320782</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.028806618960333</v>
+        <v>0.9767372333600824</v>
       </c>
       <c r="D12">
-        <v>1.036403632414595</v>
+        <v>0.9922782125128587</v>
       </c>
       <c r="E12">
-        <v>1.028821058092924</v>
+        <v>0.9879717137358583</v>
       </c>
       <c r="F12">
-        <v>1.042974619928853</v>
+        <v>0.9910346552882823</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032530181944824</v>
+        <v>1.041074136937263</v>
       </c>
       <c r="J12">
-        <v>1.035505502664847</v>
+        <v>1.007559821092544</v>
       </c>
       <c r="K12">
-        <v>1.04001419441449</v>
+        <v>1.007554860255827</v>
       </c>
       <c r="L12">
-        <v>1.032460315803722</v>
+        <v>1.003333042744505</v>
       </c>
       <c r="M12">
-        <v>1.046560687952294</v>
+        <v>1.006335656652945</v>
       </c>
       <c r="N12">
-        <v>1.036976039252772</v>
+        <v>1.008990671607223</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.028860586910567</v>
+        <v>0.9770365968644604</v>
       </c>
       <c r="D13">
-        <v>1.036453140999236</v>
+        <v>0.9925350292990504</v>
       </c>
       <c r="E13">
-        <v>1.028866770126975</v>
+        <v>0.9882082513108338</v>
       </c>
       <c r="F13">
-        <v>1.043032509158466</v>
+        <v>0.9913300882779591</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032539303875744</v>
+        <v>1.041158977845174</v>
       </c>
       <c r="J13">
-        <v>1.035540698450327</v>
+        <v>1.007749331287679</v>
       </c>
       <c r="K13">
-        <v>1.040053882052794</v>
+        <v>1.007762137646941</v>
       </c>
       <c r="L13">
-        <v>1.032496136613957</v>
+        <v>1.003520097451577</v>
       </c>
       <c r="M13">
-        <v>1.04660879751842</v>
+        <v>1.006580697308281</v>
       </c>
       <c r="N13">
-        <v>1.037011285020305</v>
+        <v>1.009180450928571</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.029037408649153</v>
+        <v>0.9780142119990843</v>
       </c>
       <c r="D14">
-        <v>1.03661536374911</v>
+        <v>0.9933739477669312</v>
       </c>
       <c r="E14">
-        <v>1.029016555074888</v>
+        <v>0.9889809790363204</v>
       </c>
       <c r="F14">
-        <v>1.043222201426205</v>
+        <v>0.9922951652604985</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032569120775275</v>
+        <v>1.041435530883843</v>
       </c>
       <c r="J14">
-        <v>1.035655993879605</v>
+        <v>1.008368124724895</v>
       </c>
       <c r="K14">
-        <v>1.040183905829727</v>
+        <v>1.008439047469532</v>
       </c>
       <c r="L14">
-        <v>1.032613491791508</v>
+        <v>1.004130979435669</v>
       </c>
       <c r="M14">
-        <v>1.046766427265562</v>
+        <v>1.007381022843836</v>
       </c>
       <c r="N14">
-        <v>1.037126744182317</v>
+        <v>1.009800123123444</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.029146348040769</v>
+        <v>0.9786140698526303</v>
       </c>
       <c r="D15">
-        <v>1.036715317744473</v>
+        <v>0.9938888889150302</v>
       </c>
       <c r="E15">
-        <v>1.029108847164206</v>
+        <v>0.9894553317350882</v>
       </c>
       <c r="F15">
-        <v>1.043339087736503</v>
+        <v>0.9928875563342826</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032587436998999</v>
+        <v>1.041604832431453</v>
       </c>
       <c r="J15">
-        <v>1.035727011158954</v>
+        <v>1.008747749938894</v>
       </c>
       <c r="K15">
-        <v>1.040264005735278</v>
+        <v>1.008854405141298</v>
       </c>
       <c r="L15">
-        <v>1.032685787186515</v>
+        <v>1.00450583221374</v>
       </c>
       <c r="M15">
-        <v>1.046863544463669</v>
+        <v>1.007872179696133</v>
       </c>
       <c r="N15">
-        <v>1.037197862314348</v>
+        <v>1.010180287448791</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.029780325992505</v>
+        <v>0.9820684330491932</v>
       </c>
       <c r="D16">
-        <v>1.037297141812504</v>
+        <v>0.9968570207517469</v>
       </c>
       <c r="E16">
-        <v>1.029646097400679</v>
+        <v>0.9921901093824986</v>
       </c>
       <c r="F16">
-        <v>1.044019578950756</v>
+        <v>0.9963023164970194</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032693205924434</v>
+        <v>1.042573812280399</v>
       </c>
       <c r="J16">
-        <v>1.036140056174781</v>
+        <v>1.010932883897298</v>
       </c>
       <c r="K16">
-        <v>1.040730037798075</v>
+        <v>1.011246410114439</v>
       </c>
       <c r="L16">
-        <v>1.033106409316189</v>
+        <v>1.006664723106119</v>
       </c>
       <c r="M16">
-        <v>1.047428751972802</v>
+        <v>1.01070178114146</v>
       </c>
       <c r="N16">
-        <v>1.037611493901475</v>
+        <v>1.012368524548055</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.030177918795251</v>
+        <v>0.9842035047087975</v>
       </c>
       <c r="D17">
-        <v>1.037662147149668</v>
+        <v>0.9986939386720713</v>
       </c>
       <c r="E17">
-        <v>1.029983161790307</v>
+        <v>0.9938831186777346</v>
       </c>
       <c r="F17">
-        <v>1.044446575967463</v>
+        <v>0.9984158506730031</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032758812281044</v>
+        <v>1.043167415143633</v>
       </c>
       <c r="J17">
-        <v>1.036398878401162</v>
+        <v>1.012282551710855</v>
       </c>
       <c r="K17">
-        <v>1.041022205068177</v>
+        <v>1.012724906692926</v>
       </c>
       <c r="L17">
-        <v>1.033370105888663</v>
+        <v>1.007999255812576</v>
       </c>
       <c r="M17">
-        <v>1.047783241693826</v>
+        <v>1.012451712894922</v>
       </c>
       <c r="N17">
-        <v>1.037870683685105</v>
+        <v>1.013720109044716</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030409797412701</v>
+        <v>0.9854377509032629</v>
       </c>
       <c r="D18">
-        <v>1.037875063754135</v>
+        <v>0.9997566610243054</v>
       </c>
       <c r="E18">
-        <v>1.030179787720211</v>
+        <v>0.9948627622417706</v>
       </c>
       <c r="F18">
-        <v>1.044695687524172</v>
+        <v>0.9996386901160036</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032796812631806</v>
+        <v>1.043508629975575</v>
       </c>
       <c r="J18">
-        <v>1.036549747612678</v>
+        <v>1.013062419726869</v>
       </c>
       <c r="K18">
-        <v>1.041192562685199</v>
+        <v>1.013579596138272</v>
       </c>
       <c r="L18">
-        <v>1.033523861959973</v>
+        <v>1.008770764240507</v>
       </c>
       <c r="M18">
-        <v>1.047989991442798</v>
+        <v>1.013463663154935</v>
       </c>
       <c r="N18">
-        <v>1.038021767148206</v>
+        <v>1.014501084562765</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.030488856851939</v>
+        <v>0.9858567445715866</v>
       </c>
       <c r="D19">
-        <v>1.037947665373276</v>
+        <v>1.000117566298804</v>
       </c>
       <c r="E19">
-        <v>1.030246835789847</v>
+        <v>0.9951954831398566</v>
       </c>
       <c r="F19">
-        <v>1.044780636843327</v>
+        <v>1.000053987200039</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032809724513455</v>
+        <v>1.043624132327122</v>
       </c>
       <c r="J19">
-        <v>1.036601173581339</v>
+        <v>1.013327102849216</v>
       </c>
       <c r="K19">
-        <v>1.04125064027894</v>
+        <v>1.013869738168904</v>
       </c>
       <c r="L19">
-        <v>1.03357627968948</v>
+        <v>1.009032675544351</v>
       </c>
       <c r="M19">
-        <v>1.048060484685027</v>
+        <v>1.01380725039347</v>
       </c>
       <c r="N19">
-        <v>1.038073266147641</v>
+        <v>1.014766143565505</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030135264009451</v>
+        <v>0.983975587851101</v>
       </c>
       <c r="D20">
-        <v>1.037622983959362</v>
+        <v>0.9984977624580822</v>
       </c>
       <c r="E20">
-        <v>1.02994699569392</v>
+        <v>0.9937022928394673</v>
       </c>
       <c r="F20">
-        <v>1.044400757908368</v>
+        <v>0.9981901242748004</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032751800925247</v>
+        <v>1.04310424895869</v>
       </c>
       <c r="J20">
-        <v>1.036371119299169</v>
+        <v>1.012138511900139</v>
       </c>
       <c r="K20">
-        <v>1.040990864344785</v>
+        <v>1.012567078434977</v>
       </c>
       <c r="L20">
-        <v>1.033341819291122</v>
+        <v>1.007856791190245</v>
       </c>
       <c r="M20">
-        <v>1.047745210172617</v>
+        <v>1.012264872995904</v>
       </c>
       <c r="N20">
-        <v>1.037842885162003</v>
+        <v>1.013575864680948</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.028985340370541</v>
+        <v>0.9777268480604205</v>
       </c>
       <c r="D21">
-        <v>1.036567592524097</v>
+        <v>0.9931273137684606</v>
       </c>
       <c r="E21">
-        <v>1.02897244617346</v>
+        <v>0.9887537960024904</v>
       </c>
       <c r="F21">
-        <v>1.043166339563683</v>
+        <v>0.9920114394496043</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032560351888531</v>
+        <v>1.041354320972386</v>
       </c>
       <c r="J21">
-        <v>1.035622046423519</v>
+        <v>1.008186247065348</v>
       </c>
       <c r="K21">
-        <v>1.040145619574714</v>
+        <v>1.008240071691028</v>
       </c>
       <c r="L21">
-        <v>1.032578935908192</v>
+        <v>1.003951410179383</v>
       </c>
       <c r="M21">
-        <v>1.046720010002435</v>
+        <v>1.007145754722158</v>
       </c>
       <c r="N21">
-        <v>1.03709274851695</v>
+        <v>1.009617987176759</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.028262061981331</v>
+        <v>0.9736904690254889</v>
       </c>
       <c r="D22">
-        <v>1.035904165634923</v>
+        <v>0.989666467810593</v>
       </c>
       <c r="E22">
-        <v>1.028359910290707</v>
+        <v>0.985566638225606</v>
       </c>
       <c r="F22">
-        <v>1.042390676321714</v>
+        <v>0.988030298582551</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032437580557832</v>
+        <v>1.040206647637126</v>
       </c>
       <c r="J22">
-        <v>1.035150199311321</v>
+        <v>1.005630476719039</v>
       </c>
       <c r="K22">
-        <v>1.039613654906067</v>
+        <v>1.005445451574548</v>
       </c>
       <c r="L22">
-        <v>1.032098800091107</v>
+        <v>1.001429549737641</v>
       </c>
       <c r="M22">
-        <v>1.046075264577106</v>
+        <v>1.003842666287422</v>
       </c>
       <c r="N22">
-        <v>1.036620231327731</v>
+        <v>1.007058587343408</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C23">
-        <v>1.02864551171172</v>
+        <v>0.9758408061999375</v>
       </c>
       <c r="D23">
-        <v>1.036255847407717</v>
+        <v>0.9915093998631787</v>
       </c>
       <c r="E23">
-        <v>1.028684607799043</v>
+        <v>0.9872636552466413</v>
       </c>
       <c r="F23">
-        <v>1.042801825984713</v>
+        <v>0.9901502519702561</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032502891275341</v>
+        <v>1.040819656410971</v>
       </c>
       <c r="J23">
-        <v>1.035400417246662</v>
+        <v>1.006992277262349</v>
       </c>
       <c r="K23">
-        <v>1.039895709167258</v>
+        <v>1.006934194338479</v>
       </c>
       <c r="L23">
-        <v>1.032353374606844</v>
+        <v>1.002772943037027</v>
       </c>
       <c r="M23">
-        <v>1.046417071540862</v>
+        <v>1.005601990810246</v>
       </c>
       <c r="N23">
-        <v>1.03687080460124</v>
+        <v>1.00842232179969</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.030154537965271</v>
+        <v>0.9840786079073116</v>
       </c>
       <c r="D24">
-        <v>1.037640680072363</v>
+        <v>0.9985864329353867</v>
       </c>
       <c r="E24">
-        <v>1.029963337528195</v>
+        <v>0.9937840244897204</v>
       </c>
       <c r="F24">
-        <v>1.044421460958044</v>
+        <v>0.9982921509936415</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032754969879263</v>
+        <v>1.0431328065405</v>
       </c>
       <c r="J24">
-        <v>1.0363836627434</v>
+        <v>1.012203620020709</v>
       </c>
       <c r="K24">
-        <v>1.041005026049649</v>
+        <v>1.012638417953613</v>
       </c>
       <c r="L24">
-        <v>1.033354600952769</v>
+        <v>1.007921186105582</v>
       </c>
       <c r="M24">
-        <v>1.047762395035844</v>
+        <v>1.012349324901469</v>
       </c>
       <c r="N24">
-        <v>1.037855446419363</v>
+        <v>1.013641065262516</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031904481149073</v>
+        <v>0.9932056082127075</v>
       </c>
       <c r="D25">
-        <v>1.039248294531522</v>
+        <v>1.006459208196536</v>
       </c>
       <c r="E25">
-        <v>1.031448091882064</v>
+        <v>1.001044322589277</v>
       </c>
       <c r="F25">
-        <v>1.046302973468874</v>
+        <v>1.007352890005297</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033037028066878</v>
+        <v>1.045620920529115</v>
       </c>
       <c r="J25">
-        <v>1.037520841654797</v>
+        <v>1.01796381440462</v>
       </c>
       <c r="K25">
-        <v>1.042290026093973</v>
+        <v>1.018958074009664</v>
       </c>
       <c r="L25">
-        <v>1.034514361079722</v>
+        <v>1.013626448397712</v>
       </c>
       <c r="M25">
-        <v>1.049322856645991</v>
+        <v>1.019838124171692</v>
       </c>
       <c r="N25">
-        <v>1.038994240255251</v>
+        <v>1.019409439783157</v>
       </c>
     </row>
   </sheetData>
